--- a/globalwheat_uae_lsdd_results_incremental.xlsx
+++ b/globalwheat_uae_lsdd_results_incremental.xlsx
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>10% OOD Bilder</t>
+          <t>5% OOD Bilder</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -485,7 +485,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>20% OOD Bilder</t>
+          <t>10% OOD Bilder</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -507,29 +507,29 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>30% OOD Bilder</t>
+          <t>15% OOD Bilder</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>40% OOD Bilder</t>
+          <t>20% OOD Bilder</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -539,19 +539,19 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>50% OOD Bilder</t>
+          <t>25% OOD Bilder</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -573,29 +573,29 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>60% OOD Bilder</t>
+          <t>30% OOD Bilder</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>70% OOD Bilder</t>
+          <t>35% OOD Bilder</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -617,7 +617,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>80% OOD Bilder</t>
+          <t>40% OOD Bilder</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -627,7 +627,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -639,7 +639,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>90% OOD Bilder</t>
+          <t>45% OOD Bilder</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -661,7 +661,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>100% OOD Bilder</t>
+          <t>50% OOD Bilder</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -683,17 +683,17 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>110% OOD Bilder</t>
+          <t>55% OOD Bilder</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -705,7 +705,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>120% OOD Bilder</t>
+          <t>60% OOD Bilder</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -727,7 +727,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>130% OOD Bilder</t>
+          <t>65% OOD Bilder</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -749,7 +749,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>140% OOD Bilder</t>
+          <t>70% OOD Bilder</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -771,7 +771,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>150% OOD Bilder</t>
+          <t>75% OOD Bilder</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -793,7 +793,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>160% OOD Bilder</t>
+          <t>80% OOD Bilder</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -815,7 +815,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>170% OOD Bilder</t>
+          <t>85% OOD Bilder</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -837,7 +837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>180% OOD Bilder</t>
+          <t>90% OOD Bilder</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -859,7 +859,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>190% OOD Bilder</t>
+          <t>95% OOD Bilder</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -881,7 +881,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>200% OOD Bilder</t>
+          <t>100% OOD Bilder</t>
         </is>
       </c>
       <c r="B21" t="n">
